--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Desler', 'Dallinga', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Germain']</t>
+    <t>['Cherki', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Cisse']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Masson', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Moffi']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Gouiri', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Massolin', 'Massolin']</t>
+    <t>['Ganago', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Gomes', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Ganiou']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Neymar']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Bailly']</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Ponceau']</t>
-  </si>
-  <si>
-    <t>['Tolisso']</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Dugimont', 'Dembele']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Bellegarde', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Ruiz', 'Mbappe']</t>
+    <t>['Pele']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Guillaume', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Terrier']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Desler']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -581,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,19 +587,19 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,19 +616,19 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +645,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -657,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -668,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -686,7 +683,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -697,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -715,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -726,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,19 +732,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -767,16 +764,16 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -802,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -813,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
+    <t>['Roure', 'Lebas', 'Alphonse', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Traore']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['Cherki', 'Lega']</t>
   </si>
   <si>
-    <t>['Lipinski', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Cisse']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Gomes', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Ganiou']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Neymar']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Bailly']</t>
+    <t>['Alioui', 'Alioui', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Sibide', 'Jakobs', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Fonte', 'David']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Perrin']</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Pele']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Flips']</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Terrier']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Desler']</t>
+    <t>['Blas', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Varane']</t>
+  </si>
+  <si>
+    <t>['Bain', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Kipembe']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Maouassa']</t>
   </si>
 </sst>
 </file>
@@ -549,28 +549,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -584,22 +584,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,28 +607,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,22 +636,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>40</v>
@@ -665,22 +665,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
@@ -694,22 +694,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
@@ -723,22 +723,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -758,22 +758,22 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,28 +781,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,10 +813,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Roure', 'Lebas', 'Alphonse', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Traore']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Alioui', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Sibide', 'Jakobs', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Fonte', 'David']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Perrin']</t>
+    <t>['Rongier', 'Balerdi', 'Harit', 'Payet']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Delaine', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Borges']</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Blas', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Varane']</t>
-  </si>
-  <si>
-    <t>['Bain', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Borges', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Kipembe']</t>
-  </si>
-  <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Maouassa']</t>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Gusto', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Lopy', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Germain', 'Khazri']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Sibide', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Moffi', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Gonzalez']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -555,48 +558,48 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -604,36 +607,36 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -642,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -651,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -665,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,33 +697,33 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -729,27 +732,27 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -758,80 +761,80 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Rongier', 'Balerdi', 'Harit', 'Payet']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Delaine', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Lemarechal']</t>
+    <t>['Kipembe', 'Kipembe', 'Neymar', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Simon', 'Ganago', 'Guessand']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Bain', 'Pellenard', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Kroupi', 'Pelon', 'Ponceau', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Ribeiro', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Hamouma', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Boura', 'Boura', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Germain', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Gusto']</t>
   </si>
   <si>
     <t>['Borges']</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Lopy', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Germain', 'Khazri']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Sibide', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Gonzalez']</t>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Aguilar']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Doumbia', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Attal']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Zeneli', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Payet', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Odobert', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Gouiri']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -573,7 +570,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -590,10 +587,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +599,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +628,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +657,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +686,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,24 +706,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,7 +732,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -744,18 +741,18 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -773,18 +770,18 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,27 +790,27 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -831,10 +828,10 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,55 +40,79 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Rongier', 'Balerdi', 'Harit', 'Payet']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Delaine', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
+    <t>['Delaine', 'Delaine', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Kalimuendo', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Alioui']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Payet']</t>
+  </si>
+  <si>
+    <t>['Lepenant']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Lens</t>
@@ -97,67 +121,40 @@
     <t>Brest</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Lopy', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Germain', 'Khazri']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Sibide', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Gonzalez']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Coco', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Van_den_Boomen', 'ChaÃ¯bi', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Henrique', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Pereira', 'Varane', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Lemarechal', 'Del_Castillo', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Danois', 'Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Verrati', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Bryan']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +570,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,27 +587,27 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -628,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,27 +645,27 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -686,7 +683,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -694,10 +691,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,13 +706,13 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -726,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,13 +735,13 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -752,10 +749,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -773,7 +770,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -781,10 +778,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,27 +790,27 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -831,10 +828,10 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Kipembe', 'Kipembe', 'Neymar', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Simon', 'Ganago', 'Guessand']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Bain', 'Pellenard', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Kroupi', 'Pelon', 'Ponceau', 'Silva']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Ribeiro', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Hamouma', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Boura', 'Boura', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Germain', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Gusto']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
+    <t>['Mollet', 'Pallois', 'Blas', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Duverne', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Sanches', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Desler']</t>
+  </si>
+  <si>
+    <t>['Autret']</t>
+  </si>
+  <si>
+    <t>['Rongier']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>['Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Aguilar']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Doumbia', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Attal']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Zeneli', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Payet', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Odobert', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Gouiri']</t>
+    <t>['Khazri', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Talbi', 'Le_Goff', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Wieteska', 'Bayo']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Yoro', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Aguilar', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Lopy', 'Serhuis']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -604,10 +607,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -686,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,24 +709,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -741,18 +744,18 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,24 +764,24 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,13 +796,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -819,16 +822,16 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Desler', 'Van_den_Boomen', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Doumbia', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Mendes']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Andre']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Moffi']</t>
-  </si>
-  <si>
-    <t>['Medina']</t>
+    <t>['Valencia', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Ripart']</t>
+  </si>
+  <si>
+    <t>['Coco']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Rodon']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Zeneli']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Le_Fee', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Sanson', 'H.Diallo', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Bayo', 'Massolin', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Jakobs', 'Embolo', 'Pele']</t>
+    <t>['Payet']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Germain', 'Wahi', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Danois', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Rodon', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['David', 'David']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Pele', 'Serrano']</t>
   </si>
 </sst>
 </file>
@@ -558,19 +552,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -578,7 +572,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,19 +581,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -607,36 +601,36 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -645,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -654,10 +648,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -665,60 +659,60 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -732,19 +726,19 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -752,7 +746,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -761,19 +755,19 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -781,7 +775,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -790,19 +784,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,28 +804,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Valencia', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Ripart']</t>
-  </si>
-  <si>
-    <t>['Coco']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Conte', 'Lopez', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Brassier', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Ben_Seguir', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
+  </si>
+  <si>
+    <t>['Laborde']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Lorient</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Germain', 'Wahi', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Danois', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Rodon', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['David', 'David']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Pele', 'Serrano']</t>
+    <t>['Gastien', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Germain', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'David']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Doumbia', 'Masson']</t>
   </si>
 </sst>
 </file>
@@ -509,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>19</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour13.xlsx
+++ b/jour13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Conte', 'Lopez', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Brassier', 'Duverne']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Ben_Seguir', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
+    <t>['Theate', 'Assignon', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Ponceau', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Savanier', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Guessand']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Balogin']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Germain', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'David']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Doumbia', 'Masson']</t>
+    <t>['Alioui', 'Sima', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Laborde', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Pellenard']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Fortes', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Bayo', 'Massolin', 'Wieteska']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Chavalerin']</t>
   </si>
 </sst>
 </file>
@@ -561,13 +558,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -579,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -588,21 +585,21 @@
         <v>40</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -614,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -623,21 +620,21 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -649,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -658,18 +655,18 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -704,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -719,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -728,21 +725,21 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -754,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -763,21 +760,21 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -786,30 +783,30 @@
         <v>26</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -821,30 +818,30 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -859,27 +856,27 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -894,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
